--- a/reports/gridsearch_IPS/best.xlsx
+++ b/reports/gridsearch_IPS/best.xlsx
@@ -1,27 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\xgboost-main\reports\gridsearch_IPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29420" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DT_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>DT_GAN</t>
+  </si>
+  <si>
+    <t>DT_SMOTE</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LR_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>LR_GAN</t>
+  </si>
+  <si>
+    <t>LR_SMOTE</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RF_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>RF_GAN</t>
+  </si>
+  <si>
+    <t>RF_SMOTE</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>XGB_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>XGB_GAN</t>
+  </si>
+  <si>
+    <t>XGB_RF</t>
+  </si>
+  <si>
+    <t>XGB_RF_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>XGB_RF_GAN</t>
+  </si>
+  <si>
+    <t>XGB_RF_SMOTE</t>
+  </si>
+  <si>
+    <t>XGB_SMOTE</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'random_state': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 2, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 2, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 1, 'random_state': 40}</t>
+  </si>
+  <si>
+    <t>{'max_iter': 500, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_iter': 1000, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'n_estimators': 20, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'min_samples_leaf': 2, 'n_estimators': 20, 'random_state': 20}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'n_estimators': 20, 'random_state': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 2, 'n_estimators': 20, 'random_state': 40}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'subsample': 0.6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'subsample': 0.6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'n_estimators': 40, 'random_state': 0, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'n_estimators': 20, 'random_state': 10, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'n_estimators': 60, 'random_state': 0, 'subsample': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'n_estimators': 20, 'random_state': 30, 'subsample': 0.6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 2, 'n_estimators': 80, 'random_state': 20}</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 2, 'random_state': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 2, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 1, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 1, 'n_estimators': 20, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'n_estimators': 60, 'random_state': 40, 'subsample': 0.6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'n_estimators': 20, 'random_state': 0, 'subsample': 0.7}</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'min_samples_leaf': 1, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'min_samples_leaf': 1, 'random_state': 20}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'min_samples_leaf': 1, 'n_estimators': 20, 'random_state': 0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'n_estimators': 20, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'min_samples_leaf': 1, 'n_estimators': 40, 'random_state': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'n_estimators': 40, 'random_state': 40, 'subsample': 0.9}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 16, 'n_estimators': 40, 'random_state': 0, 'subsample': 0.8}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'n_estimators': 20, 'random_state': 0, 'subsample': 1}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +232,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -130,7 +348,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +557,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>